--- a/ESC_Interface/ESC_Interface_All/ESC_Interface_All_BOM.xlsx
+++ b/ESC_Interface/ESC_Interface_All/ESC_Interface_All_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\teTra\GachaConSensor_PCB\ESC_Interface\ESC_Interface_All\ESC_Interface_All\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F193A88E-773F-47DE-9879-F5B389F95B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E044F80E-9639-43E0-B641-FE9262F41B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="870" windowWidth="21600" windowHeight="11385" xr2:uid="{D32FE854-887F-4A38-A070-8E2332FAEEC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D32FE854-887F-4A38-A070-8E2332FAEEC0}"/>
   </bookViews>
   <sheets>
     <sheet name="ESC_Interface_All" sheetId="1" r:id="rId1"/>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE5C89-A646-4186-ADBD-160276EF4656}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1385,7 @@
         <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>30</v>
